--- a/게시판/게시판데이터(2023-02-02).xlsx
+++ b/게시판/게시판데이터(2023-02-02).xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\workspace\Reference 자료\샘플데이터\게시판데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505225\Documents\workspace\dbms\게시판\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BEE900-CF75-4DEC-B909-7356FA2A8BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CCAF87-C73F-40D1-BE3A-32232A70266C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="1515" windowWidth="21630" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="게시판데이터(2023-02-02)" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2749" uniqueCount="1231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2751" uniqueCount="1232">
   <si>
     <t>ID</t>
   </si>
@@ -3716,6 +3717,9 @@
   <si>
     <t>내멋으로</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>내멋으로</t>
   </si>
 </sst>
 </file>
@@ -4452,7 +4456,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4500,6 +4504,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -4858,8 +4865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I686"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I15"/>
+    <sheetView topLeftCell="A665" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -24771,4 +24778,84 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99A012B-3D75-4330-BBA5-A9E60F2F8614}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>